--- a/pred_ohlcv/54_21/2019-11-13 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 HDAC ohlcv.xlsx
@@ -3460,7 +3460,7 @@
         <v>-289121.4697263303</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-313435.4508263303</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-280379.0357263303</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-299527.1788263302</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-295758.0515263302</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-296442.6068263302</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-275017.5333263302</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-275017.5333263302</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-275003.5333263302</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-279441.1293263303</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-310617.5849263303</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-310595.5849263303</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-310595.5849263303</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-301883.5069263303</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-301883.5069263303</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-301883.5069263303</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-310451.0424263303</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-357898.6361263303</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-295815.8917263303</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-295815.8917263303</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-305815.8917263303</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-342818.9779263303</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-329937.2362263303</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-339937.2362263303</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-339293.1875263303</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-339278.1875263303</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-339278.1875263303</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-269251.0253263303</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-269251.0253263303</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>934510.5298736698</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>715017.7110736698</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>764735.5640736698</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>758251.4257736698</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>785660.6575736698</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>785660.6575736698</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>758312.1997736698</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>713591.8757736698</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>716196.5337736699</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>655527.2304736698</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>788064.8265736697</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>788064.8265736697</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>735405.8265736697</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>735405.8265736697</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>797236.2197736697</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>797236.2197736697</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>797271.2197736697</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>836144.6000997897</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>836144.6000997897</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>886144.6000997897</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>883694.7337997897</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1640824.57609979</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1640824.57609979</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1640824.57609979</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1487185.60369979</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>3074400.63411772</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3110724.97044805</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>3803880.49338627</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>3494110.61228627</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>3494110.61228627</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>3245368.54258627</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>3245368.54258627</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>2866849.87948627</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>2687385.99168627</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>2744462.42288627</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>2859320.00961581</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>2849142.46501581</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>2851624.75831581</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>2889885.92301581</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>2889885.92301581</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>2895334.38231581</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>3171838.96241581</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>3316977.5402592</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3304964.5402592</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>3244645.1862592</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>2991281.258570228</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>2991296.258570228</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>2959362.019370228</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>2959362.019370228</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>3177962.765981757</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-13 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 HDAC ohlcv.xlsx
@@ -3382,7 +3382,7 @@
         <v>-254758.2582263303</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-254758.2582263303</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-289533.5728263303</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-289121.4697263303</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-313435.4508263303</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-280379.0357263303</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-299527.1788263302</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-295758.0515263302</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-296442.6068263302</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-275017.5333263302</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-275017.5333263302</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-275003.5333263302</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-279441.1293263303</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-310617.5849263303</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-310595.5849263303</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-301883.5069263303</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-301883.5069263303</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-301883.5069263303</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-310451.0424263303</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-357898.6361263303</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-295815.8917263303</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-295815.8917263303</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-305815.8917263303</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-269251.0253263303</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-269251.0253263303</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>934510.5298736698</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>715017.7110736698</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>764735.5640736698</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>758251.4257736698</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>785660.6575736698</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>785660.6575736698</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>758312.1997736698</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>713591.8757736698</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>716196.5337736699</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>655527.2304736698</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>788064.8265736697</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>788064.8265736697</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>735405.8265736697</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>735405.8265736697</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>797236.2197736697</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>797236.2197736697</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>797271.2197736697</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>836144.6000997897</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>836144.6000997897</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>886144.6000997897</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>883694.7337997897</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1640824.57609979</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1640824.57609979</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1640824.57609979</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1487185.60369979</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>3074400.63411772</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3110724.97044805</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>3803880.49338627</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>3494110.61228627</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>3494110.61228627</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>3245368.54258627</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>3245368.54258627</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>2866849.87948627</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>2687385.99168627</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>2991281.258570228</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>2991296.258570228</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>2959362.019370228</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>2959362.019370228</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>3177962.765981757</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
